--- a/CP03ISSP/Omaha_Cal_Info_CP03ISSP_00002.xlsx
+++ b/CP03ISSP/Omaha_Cal_Info_CP03ISSP_00002.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25823"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="3080" yWindow="8860" windowWidth="31300" windowHeight="12060" tabRatio="579"/>
+    <workbookView xWindow="3075" yWindow="8865" windowWidth="29040" windowHeight="12060" tabRatio="579" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Moorings" sheetId="2" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="102">
   <si>
     <t>Ref Des</t>
   </si>
@@ -232,12 +232,6 @@
     <t>Mooring Serial Number</t>
   </si>
   <si>
-    <t>SheetRef:acs137_calData_CC_taarray</t>
-  </si>
-  <si>
-    <t>SheetRef:acs137_calData_CC_tcarray</t>
-  </si>
-  <si>
     <t>Constant.  wllower = Lower wavelength limit for spectra fit. From DPS: 217 nm (1-cm pathlength probe tip) or 220 nm (4-cm pathlength probe tip)</t>
   </si>
   <si>
@@ -250,28 +244,13 @@
     <t>CP03ISSP-00001</t>
   </si>
   <si>
-    <t>CP03ISSP-SP001-02-DOSTAJ000</t>
-  </si>
-  <si>
     <t>Requires TEMPWAT, PRESWAT and PRACSAL from CP03ISSP-SP001-09-CTDPFJ000</t>
-  </si>
-  <si>
-    <t>CP03ISSP-SP001-04-OPTAAJ000</t>
   </si>
   <si>
     <t>CP03ISSP-SP001-05-VELPTJ000</t>
   </si>
   <si>
-    <t>CP03ISSP-SP001-06-NUTNRJ000</t>
-  </si>
-  <si>
     <t>CP03ISSP-SP001-07-SPKIRJ000</t>
-  </si>
-  <si>
-    <t>CP03ISSP-SP001-08-FLORTJ000</t>
-  </si>
-  <si>
-    <t>CP03ISSP-SP001-09-CTDPFJ000</t>
   </si>
   <si>
     <t>CP03ISSP-SP001-10-PARADJ000</t>
@@ -330,17 +309,44 @@
   <si>
     <t>ACS-145 data is not correct -- pending extraction from the vendor provided files</t>
   </si>
+  <si>
+    <t>40° 21.8833'N</t>
+  </si>
+  <si>
+    <t>70° 53.3167'W</t>
+  </si>
+  <si>
+    <t>CP03ISSP-SP001-02-OPTAAJ000</t>
+  </si>
+  <si>
+    <t>CP03ISSP-SP001-03-NUTNRJ000</t>
+  </si>
+  <si>
+    <t>CP03ISSP-SP001-06-DOSTAJ000</t>
+  </si>
+  <si>
+    <t>CP03ISSP-SP001-08-CTDPFJ000</t>
+  </si>
+  <si>
+    <t>CP03ISSP-SP001-09-FLORTJ000</t>
+  </si>
+  <si>
+    <t>SheetRef:acs145_calData_CC_taarray</t>
+  </si>
+  <si>
+    <t>SheetRef:acs145_calData_CC_tcarray</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="5">
-    <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="166" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
-    <numFmt numFmtId="167" formatCode="[$-409]d\-mmm\-yy;@"/>
-    <numFmt numFmtId="168" formatCode="0.000E+00"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="166" formatCode="0.000E+00"/>
   </numFmts>
   <fonts count="35" x14ac:knownFonts="1">
     <font>
@@ -675,14 +681,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
@@ -1234,7 +1240,7 @@
     <xf numFmtId="14" fontId="3" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1264,10 +1270,10 @@
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1294,7 +1300,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="34" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="34" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="20" fontId="34" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="15" fontId="34" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1305,7 +1311,7 @@
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="168" fontId="34" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="34" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1864,7 +1870,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Read Me"/>
@@ -2204,28 +2210,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.33203125" customWidth="1"/>
-    <col min="2" max="2" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.83203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.33203125" customWidth="1"/>
-    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.6640625" customWidth="1"/>
-    <col min="10" max="10" width="14.33203125" customWidth="1"/>
-    <col min="11" max="11" width="34.33203125" customWidth="1"/>
-    <col min="12" max="12" width="15.1640625" customWidth="1"/>
-    <col min="13" max="13" width="13.83203125" customWidth="1"/>
+    <col min="1" max="1" width="18.28515625" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.28515625" customWidth="1"/>
+    <col min="7" max="7" width="14" customWidth="1"/>
+    <col min="8" max="8" width="15" customWidth="1"/>
+    <col min="9" max="9" width="13.7109375" customWidth="1"/>
+    <col min="10" max="10" width="14.28515625" customWidth="1"/>
+    <col min="11" max="11" width="34.28515625" customWidth="1"/>
+    <col min="12" max="12" width="15.140625" customWidth="1"/>
+    <col min="13" max="13" width="13.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="12" customFormat="1" ht="28">
+    <row r="1" spans="1:13" s="12" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -2260,12 +2266,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="39" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B2" s="39" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="C2" s="39">
         <v>2</v>
@@ -2279,111 +2285,111 @@
       <c r="F2" s="38">
         <v>42171</v>
       </c>
-      <c r="G2" s="39">
-        <v>40.364600000000003</v>
-      </c>
-      <c r="H2" s="39">
-        <v>-70.888716666666667</v>
+      <c r="G2" s="39" t="s">
+        <v>93</v>
+      </c>
+      <c r="H2" s="39" t="s">
+        <v>94</v>
       </c>
       <c r="I2" s="39">
         <v>93</v>
       </c>
       <c r="J2" s="39" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="K2" s="39" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="L2" s="35" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="M2" s="16"/>
     </row>
-    <row r="3" spans="1:13" s="20" customFormat="1">
+    <row r="3" spans="1:13" s="20" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="C3" s="21"/>
       <c r="D3" s="22"/>
       <c r="E3" s="23"/>
       <c r="F3" s="22"/>
     </row>
-    <row r="4" spans="1:13" s="20" customFormat="1">
+    <row r="4" spans="1:13" s="20" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="C4" s="21"/>
       <c r="D4" s="22"/>
       <c r="E4" s="23"/>
       <c r="F4" s="22"/>
     </row>
-    <row r="5" spans="1:13" s="20" customFormat="1">
+    <row r="5" spans="1:13" s="20" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="C5" s="21"/>
       <c r="D5" s="22"/>
       <c r="E5" s="23"/>
       <c r="F5" s="22"/>
     </row>
-    <row r="6" spans="1:13" s="20" customFormat="1">
+    <row r="6" spans="1:13" s="20" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="C6" s="21"/>
       <c r="D6" s="22"/>
       <c r="E6" s="23"/>
       <c r="F6" s="22"/>
     </row>
-    <row r="7" spans="1:13" s="20" customFormat="1">
+    <row r="7" spans="1:13" s="20" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="C7" s="21"/>
       <c r="D7" s="22"/>
       <c r="E7" s="23"/>
       <c r="F7" s="22"/>
     </row>
-    <row r="8" spans="1:13" s="20" customFormat="1">
+    <row r="8" spans="1:13" s="20" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="C8" s="21"/>
       <c r="D8" s="22"/>
       <c r="E8" s="23"/>
       <c r="F8" s="22"/>
     </row>
-    <row r="9" spans="1:13" s="20" customFormat="1">
+    <row r="9" spans="1:13" s="20" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="C9" s="21"/>
       <c r="D9" s="22"/>
       <c r="E9" s="23"/>
       <c r="F9" s="22"/>
     </row>
-    <row r="10" spans="1:13" s="20" customFormat="1">
+    <row r="10" spans="1:13" s="20" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="C10" s="21"/>
       <c r="D10" s="22"/>
       <c r="E10" s="23"/>
       <c r="F10" s="22"/>
     </row>
-    <row r="11" spans="1:13" s="20" customFormat="1">
+    <row r="11" spans="1:13" s="20" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="C11" s="21"/>
       <c r="D11" s="22"/>
       <c r="E11" s="23"/>
       <c r="F11" s="22"/>
     </row>
-    <row r="12" spans="1:13" s="20" customFormat="1">
+    <row r="12" spans="1:13" s="20" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="C12" s="21"/>
       <c r="D12" s="22"/>
       <c r="E12" s="23"/>
       <c r="F12" s="22"/>
     </row>
-    <row r="13" spans="1:13" s="20" customFormat="1">
+    <row r="13" spans="1:13" s="20" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="C13" s="21"/>
       <c r="D13" s="22"/>
       <c r="E13" s="23"/>
       <c r="F13" s="22"/>
     </row>
-    <row r="14" spans="1:13" s="20" customFormat="1">
+    <row r="14" spans="1:13" s="20" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="C14" s="21"/>
       <c r="D14" s="22"/>
       <c r="E14" s="23"/>
       <c r="F14" s="22"/>
     </row>
-    <row r="15" spans="1:13" s="20" customFormat="1">
+    <row r="15" spans="1:13" s="20" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="C15" s="21"/>
       <c r="D15" s="22"/>
       <c r="E15" s="23"/>
       <c r="F15" s="22"/>
     </row>
-    <row r="16" spans="1:13" s="20" customFormat="1">
+    <row r="16" spans="1:13" s="20" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="C16" s="21"/>
       <c r="D16" s="22"/>
       <c r="E16" s="23"/>
       <c r="F16" s="22"/>
     </row>
-    <row r="17" spans="3:6" s="20" customFormat="1">
+    <row r="17" spans="3:6" s="20" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="C17" s="21"/>
       <c r="D17" s="22"/>
       <c r="E17" s="23"/>
@@ -2404,20 +2410,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G53"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.1640625" customWidth="1"/>
-    <col min="3" max="3" width="15.6640625" customWidth="1"/>
-    <col min="4" max="4" width="18.33203125" style="13" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="44.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="57.33203125" style="13" customWidth="1"/>
-    <col min="7" max="7" width="64.6640625" customWidth="1"/>
+    <col min="1" max="1" width="33.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" style="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="44.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="57.28515625" style="13" customWidth="1"/>
+    <col min="7" max="7" width="64.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="28">
+    <row r="1" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2440,15 +2448,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" s="13" customFormat="1">
+    <row r="3" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
-        <v>73</v>
+        <v>97</v>
       </c>
       <c r="B3" s="28" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C3" s="25">
         <v>1</v>
@@ -2466,12 +2474,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="13" customFormat="1">
+    <row r="4" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
-        <v>73</v>
+        <v>97</v>
       </c>
       <c r="B4" s="27" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C4" s="29">
         <v>1</v>
@@ -2489,12 +2497,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="13" customFormat="1">
+    <row r="5" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
-        <v>73</v>
+        <v>97</v>
       </c>
       <c r="B5" s="27" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C5" s="29">
         <v>1</v>
@@ -2506,31 +2514,31 @@
         <v>6</v>
       </c>
       <c r="F5" s="42" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="G5" s="13" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" s="13" customFormat="1">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="27"/>
       <c r="C6" s="29"/>
       <c r="D6" s="31"/>
       <c r="F6" s="31"/>
     </row>
-    <row r="7" spans="1:7" s="13" customFormat="1">
+    <row r="7" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="17" t="s">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="B7" s="26" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C7" s="25">
         <v>1</v>
       </c>
       <c r="D7" s="41" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="E7" s="13" t="s">
         <v>49</v>
@@ -2539,21 +2547,21 @@
         <v>57</v>
       </c>
       <c r="G7" s="46" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" s="13" customFormat="1">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="B8" s="27" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C8" s="29">
         <v>1</v>
       </c>
       <c r="D8" s="41" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="E8" s="13" t="s">
         <v>50</v>
@@ -2563,18 +2571,18 @@
       </c>
       <c r="G8" s="18"/>
     </row>
-    <row r="9" spans="1:7" s="13" customFormat="1">
+    <row r="9" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="B9" s="27" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C9" s="29">
         <v>1</v>
       </c>
       <c r="D9" s="41" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="E9" s="13" t="s">
         <v>51</v>
@@ -2584,18 +2592,18 @@
       </c>
       <c r="G9" s="18"/>
     </row>
-    <row r="10" spans="1:7" s="13" customFormat="1">
+    <row r="10" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="B10" s="27" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C10" s="29">
         <v>1</v>
       </c>
       <c r="D10" s="41" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="E10" s="13" t="s">
         <v>54</v>
@@ -2605,39 +2613,39 @@
       </c>
       <c r="G10" s="18"/>
     </row>
-    <row r="11" spans="1:7" s="13" customFormat="1">
+    <row r="11" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="B11" s="27" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C11" s="29">
         <v>1</v>
       </c>
       <c r="D11" s="41" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="E11" s="13" t="s">
         <v>52</v>
       </c>
       <c r="F11" s="31" t="s">
-        <v>67</v>
+        <v>100</v>
       </c>
       <c r="G11" s="18"/>
     </row>
-    <row r="12" spans="1:7" s="13" customFormat="1">
+    <row r="12" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="B12" s="27" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C12" s="29">
         <v>1</v>
       </c>
       <c r="D12" s="41" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="E12" s="13" t="s">
         <v>53</v>
@@ -2647,18 +2655,18 @@
       </c>
       <c r="G12" s="18"/>
     </row>
-    <row r="13" spans="1:7" s="13" customFormat="1">
+    <row r="13" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="B13" s="27" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C13" s="29">
         <v>1</v>
       </c>
       <c r="D13" s="41" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="E13" s="13" t="s">
         <v>55</v>
@@ -2668,46 +2676,46 @@
       </c>
       <c r="G13" s="18"/>
     </row>
-    <row r="14" spans="1:7" s="13" customFormat="1">
+    <row r="14" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="B14" s="27" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C14" s="29">
         <v>1</v>
       </c>
       <c r="D14" s="41" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="E14" s="13" t="s">
         <v>56</v>
       </c>
       <c r="F14" s="31" t="s">
-        <v>68</v>
+        <v>101</v>
       </c>
       <c r="G14" s="18"/>
     </row>
-    <row r="15" spans="1:7" s="13" customFormat="1">
+    <row r="15" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="17"/>
       <c r="B15" s="27"/>
       <c r="C15" s="29"/>
       <c r="D15" s="31"/>
       <c r="F15" s="31"/>
     </row>
-    <row r="16" spans="1:7" s="13" customFormat="1">
+    <row r="16" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="17" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B16" s="28" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C16" s="25">
         <v>1</v>
       </c>
       <c r="D16" s="42" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="E16" s="13" t="s">
         <v>7</v>
@@ -2719,18 +2727,18 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:7" s="13" customFormat="1">
+    <row r="17" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B17" s="27" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C17" s="29">
         <v>1</v>
       </c>
       <c r="D17" s="42" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="E17" s="13" t="s">
         <v>8</v>
@@ -2742,19 +2750,19 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:7" s="13" customFormat="1">
+    <row r="18" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="17"/>
       <c r="B18" s="27"/>
       <c r="C18" s="29"/>
       <c r="D18" s="31"/>
       <c r="F18" s="31"/>
     </row>
-    <row r="19" spans="1:7" s="13" customFormat="1">
+    <row r="19" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="17" t="s">
-        <v>77</v>
+        <v>96</v>
       </c>
       <c r="B19" s="28" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C19" s="25">
         <v>1</v>
@@ -2769,15 +2777,15 @@
         <v>217</v>
       </c>
       <c r="G19" s="13" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" s="13" customFormat="1">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
-        <v>77</v>
+        <v>96</v>
       </c>
       <c r="B20" s="27" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C20" s="29">
         <v>1</v>
@@ -2792,15 +2800,15 @@
         <v>240</v>
       </c>
       <c r="G20" s="13" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="B21" s="27" t="s">
         <v>70</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" s="13" customFormat="1">
-      <c r="A21" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="B21" s="27" t="s">
-        <v>72</v>
       </c>
       <c r="C21" s="29">
         <v>1</v>
@@ -2818,12 +2826,12 @@
         <v>40</v>
       </c>
     </row>
-    <row r="22" spans="1:7" s="13" customFormat="1">
+    <row r="22" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="14" t="s">
-        <v>77</v>
+        <v>96</v>
       </c>
       <c r="B22" s="27" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C22" s="29">
         <v>1</v>
@@ -2835,18 +2843,18 @@
         <v>41</v>
       </c>
       <c r="F22" s="42" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="G22" s="13" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="23" spans="1:7" s="13" customFormat="1">
+    <row r="23" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="14" t="s">
-        <v>77</v>
+        <v>96</v>
       </c>
       <c r="B23" s="27" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C23" s="29">
         <v>1</v>
@@ -2858,18 +2866,18 @@
         <v>43</v>
       </c>
       <c r="F23" s="42" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="G23" s="13" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="24" spans="1:7" s="13" customFormat="1">
+    <row r="24" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="14" t="s">
-        <v>77</v>
+        <v>96</v>
       </c>
       <c r="B24" s="27" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C24" s="29">
         <v>1</v>
@@ -2881,18 +2889,18 @@
         <v>45</v>
       </c>
       <c r="F24" s="42" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="G24" s="13" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="25" spans="1:7" s="13" customFormat="1">
+    <row r="25" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="14" t="s">
-        <v>77</v>
+        <v>96</v>
       </c>
       <c r="B25" s="27" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C25" s="29">
         <v>1</v>
@@ -2904,25 +2912,25 @@
         <v>47</v>
       </c>
       <c r="F25" s="42" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="G25" s="13" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="26" spans="1:7" s="13" customFormat="1">
+    <row r="26" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="17"/>
       <c r="B26" s="27"/>
       <c r="C26" s="29"/>
       <c r="D26" s="31"/>
       <c r="F26" s="31"/>
     </row>
-    <row r="27" spans="1:7" s="13" customFormat="1">
+    <row r="27" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="17" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="B27" s="28" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C27" s="25">
         <v>1</v>
@@ -2934,15 +2942,15 @@
         <v>34</v>
       </c>
       <c r="F27" s="42" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" s="13" customFormat="1">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="14" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="B28" s="27" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C28" s="29">
         <v>1</v>
@@ -2954,15 +2962,15 @@
         <v>35</v>
       </c>
       <c r="F28" s="42" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" s="13" customFormat="1">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="B29" s="27" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C29" s="29">
         <v>1</v>
@@ -2974,22 +2982,22 @@
         <v>36</v>
       </c>
       <c r="F29" s="42" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" s="13" customFormat="1">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="17"/>
       <c r="B30" s="27"/>
       <c r="C30" s="29"/>
       <c r="D30" s="31"/>
       <c r="F30" s="31"/>
     </row>
-    <row r="31" spans="1:7" s="13" customFormat="1">
+    <row r="31" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="17" t="s">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="B31" s="28" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C31" s="25">
         <v>1</v>
@@ -3007,12 +3015,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="32" spans="1:7" s="13" customFormat="1">
+    <row r="32" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="14" t="s">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="B32" s="27" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C32" s="29">
         <v>1</v>
@@ -3030,12 +3038,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="33" spans="1:7" s="13" customFormat="1">
+    <row r="33" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="14" t="s">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="B33" s="27" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C33" s="29">
         <v>1</v>
@@ -3053,12 +3061,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="34" spans="1:7" s="13" customFormat="1">
+    <row r="34" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="14" t="s">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="B34" s="27" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C34" s="29">
         <v>1</v>
@@ -3076,12 +3084,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="35" spans="1:7" s="13" customFormat="1">
+    <row r="35" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="14" t="s">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="B35" s="27" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C35" s="29">
         <v>1</v>
@@ -3099,12 +3107,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="36" spans="1:7" s="13" customFormat="1">
+    <row r="36" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="14" t="s">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="B36" s="27" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C36" s="29">
         <v>1</v>
@@ -3122,12 +3130,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="37" spans="1:7" s="13" customFormat="1">
+    <row r="37" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="14" t="s">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="B37" s="27" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C37" s="29">
         <v>1</v>
@@ -3145,12 +3153,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="38" spans="1:7" s="13" customFormat="1">
+    <row r="38" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="14" t="s">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="B38" s="27" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C38" s="29">
         <v>1</v>
@@ -3168,12 +3176,12 @@
         <v>22</v>
       </c>
     </row>
-    <row r="39" spans="1:7" s="13" customFormat="1">
+    <row r="39" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="14" t="s">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="B39" s="27" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C39" s="29">
         <v>1</v>
@@ -3191,12 +3199,12 @@
         <v>23</v>
       </c>
     </row>
-    <row r="40" spans="1:7" s="13" customFormat="1">
+    <row r="40" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="14" t="s">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="B40" s="27" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C40" s="29">
         <v>1</v>
@@ -3214,25 +3222,25 @@
         <v>24</v>
       </c>
     </row>
-    <row r="41" spans="1:7" s="13" customFormat="1">
+    <row r="41" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="14"/>
       <c r="B41" s="27"/>
       <c r="C41" s="29"/>
       <c r="D41" s="31"/>
       <c r="F41" s="31"/>
     </row>
-    <row r="42" spans="1:7" s="13" customFormat="1">
+    <row r="42" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="17" t="s">
-        <v>80</v>
+        <v>98</v>
       </c>
       <c r="B42" s="28" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C42" s="25">
         <v>1</v>
       </c>
       <c r="D42" s="42" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="E42" s="13" t="s">
         <v>7</v>
@@ -3244,18 +3252,18 @@
         <v>9</v>
       </c>
     </row>
-    <row r="43" spans="1:7" s="13" customFormat="1">
+    <row r="43" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="14" t="s">
-        <v>80</v>
+        <v>98</v>
       </c>
       <c r="B43" s="27" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C43" s="29">
         <v>1</v>
       </c>
       <c r="D43" s="42" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="E43" s="13" t="s">
         <v>8</v>
@@ -3267,19 +3275,19 @@
         <v>10</v>
       </c>
     </row>
-    <row r="44" spans="1:7" s="13" customFormat="1">
+    <row r="44" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="17"/>
       <c r="B44" s="27"/>
       <c r="C44" s="29"/>
       <c r="D44" s="31"/>
       <c r="F44" s="31"/>
     </row>
-    <row r="45" spans="1:7" s="13" customFormat="1">
+    <row r="45" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="17" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B45" s="28" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C45" s="25">
         <v>1</v>
@@ -3294,12 +3302,12 @@
         <v>4248</v>
       </c>
     </row>
-    <row r="46" spans="1:7" s="13" customFormat="1">
+    <row r="46" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="14" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B46" s="27" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C46" s="29">
         <v>1</v>
@@ -3314,12 +3322,12 @@
         <v>2587</v>
       </c>
     </row>
-    <row r="47" spans="1:7" s="13" customFormat="1">
+    <row r="47" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="14" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B47" s="27" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C47" s="29">
         <v>1</v>
@@ -3334,29 +3342,29 @@
         <v>1.3589</v>
       </c>
     </row>
-    <row r="48" spans="1:7" s="24" customFormat="1">
+    <row r="48" spans="1:7" s="24" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="C48" s="25"/>
       <c r="F48" s="32"/>
     </row>
-    <row r="49" spans="1:6" s="13" customFormat="1">
+    <row r="49" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="34" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="B49" s="28" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C49" s="25">
         <v>1</v>
       </c>
       <c r="D49" s="40" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="F49" s="33"/>
     </row>
-    <row r="50" spans="1:6" s="13" customFormat="1"/>
-    <row r="51" spans="1:6" s="13" customFormat="1"/>
-    <row r="52" spans="1:6" s="13" customFormat="1"/>
-    <row r="53" spans="1:6" s="13" customFormat="1"/>
+    <row r="50" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="51" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="52" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="53" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -3376,12 +3384,12 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="11.5" style="30"/>
+    <col min="1" max="16384" width="11.42578125" style="30"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A1" s="30">
         <v>4.6008E-2</v>
       </c>
@@ -3491,7 +3499,7 @@
         <v>-1.137E-2</v>
       </c>
     </row>
-    <row r="2" spans="1:36">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2" s="30">
         <v>4.2536999999999998E-2</v>
       </c>
@@ -3601,7 +3609,7 @@
         <v>-1.358E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:36">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A3" s="30">
         <v>4.3115000000000001E-2</v>
       </c>
@@ -3711,7 +3719,7 @@
         <v>-1.5838999999999999E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:36">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A4" s="30">
         <v>4.3878E-2</v>
       </c>
@@ -3821,7 +3829,7 @@
         <v>-1.8959E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:36">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5" s="30">
         <v>4.3221000000000002E-2</v>
       </c>
@@ -3931,7 +3939,7 @@
         <v>-2.0358000000000001E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:36">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A6" s="30">
         <v>4.1510999999999999E-2</v>
       </c>
@@ -4041,7 +4049,7 @@
         <v>-1.9682000000000002E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:36">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A7" s="30">
         <v>3.7416999999999999E-2</v>
       </c>
@@ -4151,7 +4159,7 @@
         <v>-1.8426000000000001E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:36">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A8" s="30">
         <v>3.4866000000000001E-2</v>
       </c>
@@ -4261,7 +4269,7 @@
         <v>-1.6534E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:36">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" s="30">
         <v>3.1199999999999999E-2</v>
       </c>
@@ -4371,7 +4379,7 @@
         <v>-1.4978999999999999E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:36">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" s="30">
         <v>2.7692999999999999E-2</v>
       </c>
@@ -4481,7 +4489,7 @@
         <v>-1.3599999999999999E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:36">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" s="30">
         <v>2.4787E-2</v>
       </c>
@@ -4591,7 +4599,7 @@
         <v>-1.2409E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:36">
+    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A12" s="30">
         <v>2.1585E-2</v>
       </c>
@@ -4701,7 +4709,7 @@
         <v>-1.1106E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:36">
+    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A13" s="30">
         <v>1.9362999999999998E-2</v>
       </c>
@@ -4811,7 +4819,7 @@
         <v>-1.0659999999999999E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:36">
+    <row r="14" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A14" s="30">
         <v>1.7412E-2</v>
       </c>
@@ -4921,7 +4929,7 @@
         <v>-1.0090999999999999E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:36">
+    <row r="15" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A15" s="30">
         <v>1.5740000000000001E-2</v>
       </c>
@@ -5031,7 +5039,7 @@
         <v>-9.4520000000000003E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:36">
+    <row r="16" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A16" s="30">
         <v>1.4527E-2</v>
       </c>
@@ -5141,7 +5149,7 @@
         <v>-9.214E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:36">
+    <row r="17" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A17" s="30">
         <v>1.379E-2</v>
       </c>
@@ -5251,7 +5259,7 @@
         <v>-9.1629999999999993E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:36">
+    <row r="18" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A18" s="30">
         <v>1.2543E-2</v>
       </c>
@@ -5361,7 +5369,7 @@
         <v>-9.1640000000000003E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:36">
+    <row r="19" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A19" s="30">
         <v>1.1979999999999999E-2</v>
       </c>
@@ -5471,7 +5479,7 @@
         <v>-9.2560000000000003E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:36">
+    <row r="20" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A20" s="30">
         <v>1.141E-2</v>
       </c>
@@ -5581,7 +5589,7 @@
         <v>-9.3310000000000008E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:36">
+    <row r="21" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A21" s="30">
         <v>1.0869999999999999E-2</v>
       </c>
@@ -5691,7 +5699,7 @@
         <v>-9.4339999999999997E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:36">
+    <row r="22" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A22" s="30">
         <v>1.0403000000000001E-2</v>
       </c>
@@ -5801,7 +5809,7 @@
         <v>-9.6699999999999998E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:36">
+    <row r="23" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A23" s="30">
         <v>1.018E-2</v>
       </c>
@@ -5911,7 +5919,7 @@
         <v>-9.9600000000000001E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:36">
+    <row r="24" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A24" s="30">
         <v>9.5879999999999993E-3</v>
       </c>
@@ -6021,7 +6029,7 @@
         <v>-9.9190000000000007E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:36">
+    <row r="25" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A25" s="30">
         <v>9.384E-3</v>
       </c>
@@ -6131,7 +6139,7 @@
         <v>-1.0031999999999999E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:36">
+    <row r="26" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A26" s="30">
         <v>9.025E-3</v>
       </c>
@@ -6241,7 +6249,7 @@
         <v>-9.8969999999999995E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:36">
+    <row r="27" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A27" s="30">
         <v>8.5540000000000008E-3</v>
       </c>
@@ -6351,7 +6359,7 @@
         <v>-9.5949999999999994E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:36">
+    <row r="28" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A28" s="30">
         <v>8.3199999999999993E-3</v>
       </c>
@@ -6461,7 +6469,7 @@
         <v>-9.2449999999999997E-3</v>
       </c>
     </row>
-    <row r="29" spans="1:36">
+    <row r="29" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A29" s="30">
         <v>7.9459999999999999E-3</v>
       </c>
@@ -6571,7 +6579,7 @@
         <v>-8.9110000000000005E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:36">
+    <row r="30" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A30" s="30">
         <v>7.5760000000000003E-3</v>
       </c>
@@ -6681,7 +6689,7 @@
         <v>-8.286E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:36">
+    <row r="31" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A31" s="30">
         <v>7.5640000000000004E-3</v>
       </c>
@@ -6791,7 +6799,7 @@
         <v>-7.8480000000000008E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:36">
+    <row r="32" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A32" s="30">
         <v>7.2570000000000004E-3</v>
       </c>
@@ -6901,7 +6909,7 @@
         <v>-7.273E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:36">
+    <row r="33" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A33" s="30">
         <v>7.1209999999999997E-3</v>
       </c>
@@ -7011,7 +7019,7 @@
         <v>-6.6730000000000001E-3</v>
       </c>
     </row>
-    <row r="34" spans="1:36">
+    <row r="34" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A34" s="30">
         <v>7.1009999999999997E-3</v>
       </c>
@@ -7121,7 +7129,7 @@
         <v>-6.0819999999999997E-3</v>
       </c>
     </row>
-    <row r="35" spans="1:36">
+    <row r="35" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A35" s="30">
         <v>6.9690000000000004E-3</v>
       </c>
@@ -7231,7 +7239,7 @@
         <v>-5.555E-3</v>
       </c>
     </row>
-    <row r="36" spans="1:36">
+    <row r="36" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A36" s="30">
         <v>7.1580000000000003E-3</v>
       </c>
@@ -7341,7 +7349,7 @@
         <v>-5.0730000000000003E-3</v>
       </c>
     </row>
-    <row r="37" spans="1:36">
+    <row r="37" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A37" s="30">
         <v>7.0470000000000003E-3</v>
       </c>
@@ -7451,7 +7459,7 @@
         <v>-4.6169999999999996E-3</v>
       </c>
     </row>
-    <row r="38" spans="1:36">
+    <row r="38" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A38" s="30">
         <v>7.2830000000000004E-3</v>
       </c>
@@ -7561,7 +7569,7 @@
         <v>-4.3220000000000003E-3</v>
       </c>
     </row>
-    <row r="39" spans="1:36">
+    <row r="39" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A39" s="30">
         <v>7.0229999999999997E-3</v>
       </c>
@@ -7671,7 +7679,7 @@
         <v>-4.0289999999999996E-3</v>
       </c>
     </row>
-    <row r="40" spans="1:36">
+    <row r="40" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A40" s="30">
         <v>6.6090000000000003E-3</v>
       </c>
@@ -7781,7 +7789,7 @@
         <v>-3.7910000000000001E-3</v>
       </c>
     </row>
-    <row r="41" spans="1:36">
+    <row r="41" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A41" s="30">
         <v>6.4440000000000001E-3</v>
       </c>
@@ -7891,7 +7899,7 @@
         <v>-3.5990000000000002E-3</v>
       </c>
     </row>
-    <row r="42" spans="1:36">
+    <row r="42" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A42" s="30">
         <v>5.9170000000000004E-3</v>
       </c>
@@ -8001,7 +8009,7 @@
         <v>-3.4169999999999999E-3</v>
       </c>
     </row>
-    <row r="43" spans="1:36">
+    <row r="43" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A43" s="30">
         <v>1.9090000000000001E-3</v>
       </c>
@@ -8111,7 +8119,7 @@
         <v>-4.0000000000000002E-4</v>
       </c>
     </row>
-    <row r="44" spans="1:36">
+    <row r="44" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A44" s="30">
         <v>1.421E-3</v>
       </c>
@@ -8221,7 +8229,7 @@
         <v>-1.9699999999999999E-4</v>
       </c>
     </row>
-    <row r="45" spans="1:36">
+    <row r="45" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A45" s="30">
         <v>1.3699999999999999E-3</v>
       </c>
@@ -8331,7 +8339,7 @@
         <v>6.6000000000000005E-5</v>
       </c>
     </row>
-    <row r="46" spans="1:36">
+    <row r="46" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A46" s="30">
         <v>9.7599999999999998E-4</v>
       </c>
@@ -8441,7 +8449,7 @@
         <v>3.4499999999999998E-4</v>
       </c>
     </row>
-    <row r="47" spans="1:36">
+    <row r="47" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A47" s="30">
         <v>5.5900000000000004E-4</v>
       </c>
@@ -8551,7 +8559,7 @@
         <v>6.4800000000000003E-4</v>
       </c>
     </row>
-    <row r="48" spans="1:36">
+    <row r="48" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A48" s="30">
         <v>-1.1E-5</v>
       </c>
@@ -8661,7 +8669,7 @@
         <v>1.0020000000000001E-3</v>
       </c>
     </row>
-    <row r="49" spans="1:36">
+    <row r="49" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A49" s="30">
         <v>-5.62E-4</v>
       </c>
@@ -8771,7 +8779,7 @@
         <v>1.3500000000000001E-3</v>
       </c>
     </row>
-    <row r="50" spans="1:36">
+    <row r="50" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A50" s="30">
         <v>-1.3389999999999999E-3</v>
       </c>
@@ -8881,7 +8889,7 @@
         <v>1.5380000000000001E-3</v>
       </c>
     </row>
-    <row r="51" spans="1:36">
+    <row r="51" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A51" s="30">
         <v>-2.0699999999999998E-3</v>
       </c>
@@ -8991,7 +8999,7 @@
         <v>1.722E-3</v>
       </c>
     </row>
-    <row r="52" spans="1:36">
+    <row r="52" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A52" s="30">
         <v>-2.702E-3</v>
       </c>
@@ -9101,7 +9109,7 @@
         <v>1.714E-3</v>
       </c>
     </row>
-    <row r="53" spans="1:36">
+    <row r="53" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A53" s="30">
         <v>-2.8639999999999998E-3</v>
       </c>
@@ -9211,7 +9219,7 @@
         <v>1.7279999999999999E-3</v>
       </c>
     </row>
-    <row r="54" spans="1:36">
+    <row r="54" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A54" s="30">
         <v>-2.9510000000000001E-3</v>
       </c>
@@ -9321,7 +9329,7 @@
         <v>1.5299999999999999E-3</v>
       </c>
     </row>
-    <row r="55" spans="1:36">
+    <row r="55" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A55" s="30">
         <v>-2.8219999999999999E-3</v>
       </c>
@@ -9431,7 +9439,7 @@
         <v>1.3780000000000001E-3</v>
       </c>
     </row>
-    <row r="56" spans="1:36">
+    <row r="56" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A56" s="30">
         <v>-2.7550000000000001E-3</v>
       </c>
@@ -9541,7 +9549,7 @@
         <v>1.0640000000000001E-3</v>
       </c>
     </row>
-    <row r="57" spans="1:36">
+    <row r="57" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A57" s="30">
         <v>-2.5140000000000002E-3</v>
       </c>
@@ -9651,7 +9659,7 @@
         <v>9.3599999999999998E-4</v>
       </c>
     </row>
-    <row r="58" spans="1:36">
+    <row r="58" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A58" s="30">
         <v>-2.2439999999999999E-3</v>
       </c>
@@ -9761,7 +9769,7 @@
         <v>8.25E-4</v>
       </c>
     </row>
-    <row r="59" spans="1:36">
+    <row r="59" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A59" s="30">
         <v>-2.0070000000000001E-3</v>
       </c>
@@ -9871,7 +9879,7 @@
         <v>6.9899999999999997E-4</v>
       </c>
     </row>
-    <row r="60" spans="1:36">
+    <row r="60" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A60" s="30">
         <v>-1.7780000000000001E-3</v>
       </c>
@@ -9981,7 +9989,7 @@
         <v>6.3199999999999997E-4</v>
       </c>
     </row>
-    <row r="61" spans="1:36">
+    <row r="61" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A61" s="30">
         <v>-1.655E-3</v>
       </c>
@@ -10091,7 +10099,7 @@
         <v>4.6700000000000002E-4</v>
       </c>
     </row>
-    <row r="62" spans="1:36">
+    <row r="62" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A62" s="30">
         <v>-1.6310000000000001E-3</v>
       </c>
@@ -10201,7 +10209,7 @@
         <v>3.2499999999999999E-4</v>
       </c>
     </row>
-    <row r="63" spans="1:36">
+    <row r="63" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A63" s="30">
         <v>-1.5989999999999999E-3</v>
       </c>
@@ -10311,7 +10319,7 @@
         <v>1.93E-4</v>
       </c>
     </row>
-    <row r="64" spans="1:36">
+    <row r="64" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A64" s="30">
         <v>-1.493E-3</v>
       </c>
@@ -10421,7 +10429,7 @@
         <v>6.4999999999999994E-5</v>
       </c>
     </row>
-    <row r="65" spans="1:36">
+    <row r="65" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A65" s="30">
         <v>-1.273E-3</v>
       </c>
@@ -10531,7 +10539,7 @@
         <v>-7.4999999999999993E-5</v>
       </c>
     </row>
-    <row r="66" spans="1:36">
+    <row r="66" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A66" s="30">
         <v>-1.0189999999999999E-3</v>
       </c>
@@ -10641,7 +10649,7 @@
         <v>-1.5899999999999999E-4</v>
       </c>
     </row>
-    <row r="67" spans="1:36">
+    <row r="67" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A67" s="30">
         <v>-7.1699999999999997E-4</v>
       </c>
@@ -10751,7 +10759,7 @@
         <v>-1.7000000000000001E-4</v>
       </c>
     </row>
-    <row r="68" spans="1:36">
+    <row r="68" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A68" s="30">
         <v>-1.8E-5</v>
       </c>
@@ -10861,7 +10869,7 @@
         <v>-3.1100000000000002E-4</v>
       </c>
     </row>
-    <row r="69" spans="1:36">
+    <row r="69" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A69" s="30">
         <v>3.28E-4</v>
       </c>
@@ -10971,7 +10979,7 @@
         <v>-5.0299999999999997E-4</v>
       </c>
     </row>
-    <row r="70" spans="1:36">
+    <row r="70" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A70" s="30">
         <v>5.8299999999999997E-4</v>
       </c>
@@ -11081,7 +11089,7 @@
         <v>-6.7100000000000005E-4</v>
       </c>
     </row>
-    <row r="71" spans="1:36">
+    <row r="71" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A71" s="30">
         <v>8.4999999999999995E-4</v>
       </c>
@@ -11191,7 +11199,7 @@
         <v>-9.0499999999999999E-4</v>
       </c>
     </row>
-    <row r="72" spans="1:36">
+    <row r="72" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A72" s="30">
         <v>1.165E-3</v>
       </c>
@@ -11301,7 +11309,7 @@
         <v>-1.168E-3</v>
       </c>
     </row>
-    <row r="73" spans="1:36">
+    <row r="73" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A73" s="30">
         <v>1.469E-3</v>
       </c>
@@ -11411,7 +11419,7 @@
         <v>-1.3760000000000001E-3</v>
       </c>
     </row>
-    <row r="74" spans="1:36">
+    <row r="74" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A74" s="30">
         <v>1.9949999999999998E-3</v>
       </c>
@@ -11521,7 +11529,7 @@
         <v>-1.586E-3</v>
       </c>
     </row>
-    <row r="75" spans="1:36">
+    <row r="75" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A75" s="30">
         <v>2.3739999999999998E-3</v>
       </c>
@@ -11631,7 +11639,7 @@
         <v>-1.663E-3</v>
       </c>
     </row>
-    <row r="76" spans="1:36">
+    <row r="76" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A76" s="30">
         <v>2.3760000000000001E-3</v>
       </c>
@@ -11741,7 +11749,7 @@
         <v>-1.732E-3</v>
       </c>
     </row>
-    <row r="77" spans="1:36">
+    <row r="77" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A77" s="30">
         <v>2.4130000000000002E-3</v>
       </c>
@@ -11851,7 +11859,7 @@
         <v>-1.681E-3</v>
       </c>
     </row>
-    <row r="78" spans="1:36">
+    <row r="78" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A78" s="30">
         <v>2.166E-3</v>
       </c>
@@ -11961,7 +11969,7 @@
         <v>-1.699E-3</v>
       </c>
     </row>
-    <row r="79" spans="1:36">
+    <row r="79" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A79" s="30">
         <v>1.9530000000000001E-3</v>
       </c>
@@ -12071,7 +12079,7 @@
         <v>-1.627E-3</v>
       </c>
     </row>
-    <row r="80" spans="1:36">
+    <row r="80" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A80" s="30">
         <v>1.7539999999999999E-3</v>
       </c>
@@ -12181,7 +12189,7 @@
         <v>-1.565E-3</v>
       </c>
     </row>
-    <row r="81" spans="1:36">
+    <row r="81" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A81" s="30">
         <v>1.653E-3</v>
       </c>
@@ -12291,7 +12299,7 @@
         <v>-1.4779999999999999E-3</v>
       </c>
     </row>
-    <row r="82" spans="1:36">
+    <row r="82" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A82" s="30">
         <v>1.4339999999999999E-3</v>
       </c>
@@ -12401,7 +12409,7 @@
         <v>-1.253E-3</v>
       </c>
     </row>
-    <row r="83" spans="1:36">
+    <row r="83" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A83" s="30">
         <v>1.5529999999999999E-3</v>
       </c>
@@ -12511,7 +12519,7 @@
         <v>-1.103E-3</v>
       </c>
     </row>
-    <row r="84" spans="1:36">
+    <row r="84" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A84" s="30">
         <v>1.704E-3</v>
       </c>
@@ -12621,7 +12629,7 @@
         <v>-8.92E-4</v>
       </c>
     </row>
-    <row r="85" spans="1:36">
+    <row r="85" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A85" s="30">
         <v>1.725E-3</v>
       </c>
@@ -12749,12 +12757,12 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="11.5" style="30"/>
+    <col min="1" max="16384" width="11.42578125" style="30"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A1" s="30">
         <v>0.11464299999999999</v>
       </c>
@@ -12864,7 +12872,7 @@
         <v>-5.0855999999999998E-2</v>
       </c>
     </row>
-    <row r="2" spans="1:36">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2" s="30">
         <v>0.11143699999999999</v>
       </c>
@@ -12974,7 +12982,7 @@
         <v>-4.8311E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:36">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A3" s="30">
         <v>0.10566</v>
       </c>
@@ -13084,7 +13092,7 @@
         <v>-4.7612000000000002E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:36">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A4" s="30">
         <v>0.103315</v>
       </c>
@@ -13194,7 +13202,7 @@
         <v>-4.4401000000000003E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:36">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5" s="30">
         <v>0.100078</v>
       </c>
@@ -13304,7 +13312,7 @@
         <v>-4.3917999999999999E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:36">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A6" s="30">
         <v>9.7517999999999994E-2</v>
       </c>
@@ -13414,7 +13422,7 @@
         <v>-4.0932999999999997E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:36">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A7" s="30">
         <v>9.4977000000000006E-2</v>
       </c>
@@ -13524,7 +13532,7 @@
         <v>-3.9729E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:36">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A8" s="30">
         <v>9.2086000000000001E-2</v>
       </c>
@@ -13634,7 +13642,7 @@
         <v>-3.8157999999999997E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:36">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" s="30">
         <v>8.8232000000000005E-2</v>
       </c>
@@ -13744,7 +13752,7 @@
         <v>-3.6015999999999999E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:36">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" s="30">
         <v>8.4955000000000003E-2</v>
       </c>
@@ -13854,7 +13862,7 @@
         <v>-3.3876000000000003E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:36">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" s="30">
         <v>8.2607E-2</v>
       </c>
@@ -13964,7 +13972,7 @@
         <v>-3.2259999999999997E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:36">
+    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A12" s="30">
         <v>7.9913999999999999E-2</v>
       </c>
@@ -14074,7 +14082,7 @@
         <v>-3.0206E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:36">
+    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A13" s="30">
         <v>7.8973000000000002E-2</v>
       </c>
@@ -14184,7 +14192,7 @@
         <v>-2.8332E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:36">
+    <row r="14" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A14" s="30">
         <v>7.6024999999999995E-2</v>
       </c>
@@ -14294,7 +14302,7 @@
         <v>-2.6426000000000002E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:36">
+    <row r="15" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A15" s="30">
         <v>7.4902999999999997E-2</v>
       </c>
@@ -14404,7 +14412,7 @@
         <v>-2.4596E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:36">
+    <row r="16" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A16" s="30">
         <v>7.3431999999999997E-2</v>
       </c>
@@ -14514,7 +14522,7 @@
         <v>-2.2771E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:36">
+    <row r="17" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A17" s="30">
         <v>7.2954000000000005E-2</v>
       </c>
@@ -14624,7 +14632,7 @@
         <v>-2.1378000000000001E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:36">
+    <row r="18" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A18" s="30">
         <v>7.2392999999999999E-2</v>
       </c>
@@ -14734,7 +14742,7 @@
         <v>-2.0163E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:36">
+    <row r="19" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A19" s="30">
         <v>7.1642999999999998E-2</v>
       </c>
@@ -14844,7 +14852,7 @@
         <v>-1.9016999999999999E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:36">
+    <row r="20" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A20" s="30">
         <v>7.0186999999999999E-2</v>
       </c>
@@ -14954,7 +14962,7 @@
         <v>-1.8008E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:36">
+    <row r="21" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A21" s="30">
         <v>6.9302000000000002E-2</v>
       </c>
@@ -15064,7 +15072,7 @@
         <v>-1.7052000000000001E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:36">
+    <row r="22" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A22" s="30">
         <v>6.8472000000000005E-2</v>
       </c>
@@ -15174,7 +15182,7 @@
         <v>-1.6406E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:36">
+    <row r="23" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A23" s="30">
         <v>6.7325999999999997E-2</v>
       </c>
@@ -15284,7 +15292,7 @@
         <v>-1.5685000000000001E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:36">
+    <row r="24" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A24" s="30">
         <v>6.6239999999999993E-2</v>
       </c>
@@ -15394,7 +15402,7 @@
         <v>-1.5491E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:36">
+    <row r="25" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A25" s="30">
         <v>6.5568000000000001E-2</v>
       </c>
@@ -15504,7 +15512,7 @@
         <v>-1.5266999999999999E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:36">
+    <row r="26" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A26" s="30">
         <v>6.4459000000000002E-2</v>
       </c>
@@ -15614,7 +15622,7 @@
         <v>-1.5446E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:36">
+    <row r="27" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A27" s="30">
         <v>6.3698000000000005E-2</v>
       </c>
@@ -15724,7 +15732,7 @@
         <v>-1.5762000000000002E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:36">
+    <row r="28" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A28" s="30">
         <v>6.2205000000000003E-2</v>
       </c>
@@ -15834,7 +15842,7 @@
         <v>-1.5906E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:36">
+    <row r="29" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A29" s="30">
         <v>6.1772000000000001E-2</v>
       </c>
@@ -15944,7 +15952,7 @@
         <v>-1.6376000000000002E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:36">
+    <row r="30" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A30" s="30">
         <v>6.0983000000000002E-2</v>
       </c>
@@ -16054,7 +16062,7 @@
         <v>-1.6698000000000001E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:36">
+    <row r="31" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A31" s="30">
         <v>5.9484000000000002E-2</v>
       </c>
@@ -16164,7 +16172,7 @@
         <v>-1.7065E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:36">
+    <row r="32" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A32" s="30">
         <v>5.885E-2</v>
       </c>
@@ -16274,7 +16282,7 @@
         <v>-1.7538000000000002E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:36">
+    <row r="33" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A33" s="30">
         <v>5.8035000000000003E-2</v>
       </c>
@@ -16384,7 +16392,7 @@
         <v>-1.7956E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:36">
+    <row r="34" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A34" s="30">
         <v>5.6728000000000001E-2</v>
       </c>
@@ -16494,7 +16502,7 @@
         <v>-1.8258E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:36">
+    <row r="35" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A35" s="30">
         <v>5.6006E-2</v>
       </c>
@@ -16604,7 +16612,7 @@
         <v>-1.8557000000000001E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:36">
+    <row r="36" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A36" s="30">
         <v>5.4544000000000002E-2</v>
       </c>
@@ -16714,7 +16722,7 @@
         <v>-1.8412999999999999E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:36">
+    <row r="37" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A37" s="30">
         <v>5.3428000000000003E-2</v>
       </c>
@@ -16824,7 +16832,7 @@
         <v>-1.8096000000000001E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:36">
+    <row r="38" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A38" s="30">
         <v>5.2255000000000003E-2</v>
       </c>
@@ -16934,7 +16942,7 @@
         <v>-1.7731E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:36">
+    <row r="39" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A39" s="30">
         <v>5.1347999999999998E-2</v>
       </c>
@@ -17044,7 +17052,7 @@
         <v>-1.7405E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:36">
+    <row r="40" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A40" s="30">
         <v>5.0941E-2</v>
       </c>
@@ -17154,7 +17162,7 @@
         <v>-1.6965000000000001E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:36">
+    <row r="41" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A41" s="30">
         <v>5.0456000000000001E-2</v>
       </c>
@@ -17264,7 +17272,7 @@
         <v>-1.6688000000000001E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:36">
+    <row r="42" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A42" s="30">
         <v>4.9521000000000003E-2</v>
       </c>
@@ -17374,7 +17382,7 @@
         <v>-1.6479000000000001E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:36">
+    <row r="43" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A43" s="30">
         <v>5.2349E-2</v>
       </c>
@@ -17484,7 +17492,7 @@
         <v>-1.9583E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:36">
+    <row r="44" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A44" s="30">
         <v>5.2712000000000002E-2</v>
       </c>
@@ -17594,7 +17602,7 @@
         <v>-1.9982E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:36">
+    <row r="45" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A45" s="30">
         <v>5.2965999999999999E-2</v>
       </c>
@@ -17704,7 +17712,7 @@
         <v>-2.0264000000000001E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:36">
+    <row r="46" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A46" s="30">
         <v>5.373E-2</v>
       </c>
@@ -17814,7 +17822,7 @@
         <v>-2.0386000000000001E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:36">
+    <row r="47" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A47" s="30">
         <v>5.4421999999999998E-2</v>
       </c>
@@ -17924,7 +17932,7 @@
         <v>-2.0745E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:36">
+    <row r="48" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A48" s="30">
         <v>5.5028000000000001E-2</v>
       </c>
@@ -18034,7 +18042,7 @@
         <v>-2.0560999999999999E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:36">
+    <row r="49" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A49" s="30">
         <v>5.5216000000000001E-2</v>
       </c>
@@ -18144,7 +18152,7 @@
         <v>-2.0379999999999999E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:36">
+    <row r="50" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A50" s="30">
         <v>5.5146000000000001E-2</v>
       </c>
@@ -18254,7 +18262,7 @@
         <v>-1.9935000000000001E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:36">
+    <row r="51" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A51" s="30">
         <v>5.4336000000000002E-2</v>
       </c>
@@ -18364,7 +18372,7 @@
         <v>-1.9289000000000001E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:36">
+    <row r="52" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A52" s="30">
         <v>5.3359999999999998E-2</v>
       </c>
@@ -18474,7 +18482,7 @@
         <v>-1.8554999999999999E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:36">
+    <row r="53" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A53" s="30">
         <v>5.2211E-2</v>
       </c>
@@ -18584,7 +18592,7 @@
         <v>-1.8151E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:36">
+    <row r="54" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A54" s="30">
         <v>5.0758999999999999E-2</v>
       </c>
@@ -18694,7 +18702,7 @@
         <v>-1.7795999999999999E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:36">
+    <row r="55" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A55" s="30">
         <v>4.9699E-2</v>
       </c>
@@ -18804,7 +18812,7 @@
         <v>-1.7281000000000001E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:36">
+    <row r="56" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A56" s="30">
         <v>4.9028000000000002E-2</v>
       </c>
@@ -18914,7 +18922,7 @@
         <v>-1.6966999999999999E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:36">
+    <row r="57" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A57" s="30">
         <v>4.8057000000000002E-2</v>
       </c>
@@ -19024,7 +19032,7 @@
         <v>-1.6674999999999999E-2</v>
       </c>
     </row>
-    <row r="58" spans="1:36">
+    <row r="58" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A58" s="30">
         <v>4.7393999999999999E-2</v>
       </c>
@@ -19134,7 +19142,7 @@
         <v>-1.6372000000000001E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:36">
+    <row r="59" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A59" s="30">
         <v>4.6948999999999998E-2</v>
       </c>
@@ -19244,7 +19252,7 @@
         <v>-1.6211E-2</v>
       </c>
     </row>
-    <row r="60" spans="1:36">
+    <row r="60" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A60" s="30">
         <v>4.6358000000000003E-2</v>
       </c>
@@ -19354,7 +19362,7 @@
         <v>-1.5982E-2</v>
       </c>
     </row>
-    <row r="61" spans="1:36">
+    <row r="61" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A61" s="30">
         <v>4.6005999999999998E-2</v>
       </c>
@@ -19464,7 +19472,7 @@
         <v>-1.5730999999999998E-2</v>
       </c>
     </row>
-    <row r="62" spans="1:36">
+    <row r="62" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A62" s="30">
         <v>4.5657000000000003E-2</v>
       </c>
@@ -19574,7 +19582,7 @@
         <v>-1.5650000000000001E-2</v>
       </c>
     </row>
-    <row r="63" spans="1:36">
+    <row r="63" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A63" s="30">
         <v>4.4887999999999997E-2</v>
       </c>
@@ -19684,7 +19692,7 @@
         <v>-1.5442000000000001E-2</v>
       </c>
     </row>
-    <row r="64" spans="1:36">
+    <row r="64" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A64" s="30">
         <v>4.4344000000000001E-2</v>
       </c>
@@ -19794,7 +19802,7 @@
         <v>-1.5474999999999999E-2</v>
       </c>
     </row>
-    <row r="65" spans="1:36">
+    <row r="65" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A65" s="30">
         <v>4.3698000000000001E-2</v>
       </c>
@@ -19904,7 +19912,7 @@
         <v>-1.5446E-2</v>
       </c>
     </row>
-    <row r="66" spans="1:36">
+    <row r="66" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A66" s="30">
         <v>4.2992000000000002E-2</v>
       </c>
@@ -20014,7 +20022,7 @@
         <v>-1.5382E-2</v>
       </c>
     </row>
-    <row r="67" spans="1:36">
+    <row r="67" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A67" s="30">
         <v>4.2221000000000002E-2</v>
       </c>
@@ -20124,7 +20132,7 @@
         <v>-1.5272000000000001E-2</v>
       </c>
     </row>
-    <row r="68" spans="1:36">
+    <row r="68" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A68" s="30">
         <v>4.2258999999999998E-2</v>
       </c>
@@ -20234,7 +20242,7 @@
         <v>-1.5022000000000001E-2</v>
       </c>
     </row>
-    <row r="69" spans="1:36">
+    <row r="69" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A69" s="30">
         <v>4.1813000000000003E-2</v>
       </c>
@@ -20344,7 +20352,7 @@
         <v>-1.4598E-2</v>
       </c>
     </row>
-    <row r="70" spans="1:36">
+    <row r="70" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A70" s="30">
         <v>4.1190999999999998E-2</v>
       </c>
@@ -20454,7 +20462,7 @@
         <v>-1.439E-2</v>
       </c>
     </row>
-    <row r="71" spans="1:36">
+    <row r="71" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A71" s="30">
         <v>4.1315999999999999E-2</v>
       </c>
@@ -20564,7 +20572,7 @@
         <v>-1.4239E-2</v>
       </c>
     </row>
-    <row r="72" spans="1:36">
+    <row r="72" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A72" s="30">
         <v>4.0593999999999998E-2</v>
       </c>
@@ -20674,7 +20682,7 @@
         <v>-1.4161E-2</v>
       </c>
     </row>
-    <row r="73" spans="1:36">
+    <row r="73" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A73" s="30">
         <v>4.0902000000000001E-2</v>
       </c>
@@ -20784,7 +20792,7 @@
         <v>-1.4272999999999999E-2</v>
       </c>
     </row>
-    <row r="74" spans="1:36">
+    <row r="74" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A74" s="30">
         <v>4.0507000000000001E-2</v>
       </c>
@@ -20894,7 +20902,7 @@
         <v>-1.4279999999999999E-2</v>
       </c>
     </row>
-    <row r="75" spans="1:36">
+    <row r="75" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A75" s="30">
         <v>4.1043999999999997E-2</v>
       </c>
@@ -21004,7 +21012,7 @@
         <v>-1.4352999999999999E-2</v>
       </c>
     </row>
-    <row r="76" spans="1:36">
+    <row r="76" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A76" s="30">
         <v>4.0555000000000001E-2</v>
       </c>
@@ -21114,7 +21122,7 @@
         <v>-1.4429000000000001E-2</v>
       </c>
     </row>
-    <row r="77" spans="1:36">
+    <row r="77" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A77" s="30">
         <v>4.1255E-2</v>
       </c>
@@ -21224,7 +21232,7 @@
         <v>-1.4637000000000001E-2</v>
       </c>
     </row>
-    <row r="78" spans="1:36">
+    <row r="78" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A78" s="30">
         <v>4.0912999999999998E-2</v>
       </c>
@@ -21334,7 +21342,7 @@
         <v>-1.4713E-2</v>
       </c>
     </row>
-    <row r="79" spans="1:36">
+    <row r="79" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A79" s="30">
         <v>4.1392999999999999E-2</v>
       </c>
@@ -21444,7 +21452,7 @@
         <v>-1.5044E-2</v>
       </c>
     </row>
-    <row r="80" spans="1:36">
+    <row r="80" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A80" s="30">
         <v>4.0951000000000001E-2</v>
       </c>
@@ -21554,7 +21562,7 @@
         <v>-1.5200999999999999E-2</v>
       </c>
     </row>
-    <row r="81" spans="1:36">
+    <row r="81" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A81" s="30">
         <v>4.0934999999999999E-2</v>
       </c>
@@ -21664,7 +21672,7 @@
         <v>-1.54E-2</v>
       </c>
     </row>
-    <row r="82" spans="1:36">
+    <row r="82" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A82" s="30">
         <v>4.0092999999999997E-2</v>
       </c>
@@ -21774,7 +21782,7 @@
         <v>-1.5492000000000001E-2</v>
       </c>
     </row>
-    <row r="83" spans="1:36">
+    <row r="83" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A83" s="30">
         <v>3.9625E-2</v>
       </c>
@@ -21884,7 +21892,7 @@
         <v>-1.5389E-2</v>
       </c>
     </row>
-    <row r="84" spans="1:36">
+    <row r="84" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A84" s="30">
         <v>3.8066000000000003E-2</v>
       </c>
@@ -21994,7 +22002,7 @@
         <v>-1.4987E-2</v>
       </c>
     </row>
-    <row r="85" spans="1:36">
+    <row r="85" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A85" s="30">
         <v>3.8646E-2</v>
       </c>
